--- a/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
+++ b/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,922 +460,1030 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1992953</t>
+          <t>1993486</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['КНП  ОРІХІВСЬКА БАГАТОПРОФІЛЬНА ЛІКАРНЯ ІНТЕНСИВНОГО ЛІКУВАННЯ ОРІХІВСЬКОЇ МІСЬКОЇ РАДИ', 9], ['ДУ «ЗАПОРІЗЬКИЙ  ОЦКПХ  МОЗ »)', 1]]</t>
+          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 14], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1993486</t>
+          <t>1995290</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 9], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
+          <t>[['КНП "Петрівська Центральна лікарня" Петрівської селищної ради', 1], ['КНП "Петрівська Центральна лікарня" Петрівської районної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1995290</t>
+          <t>1998354</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['КНП "Петрівська Центральна лікарня" Петрівської селищної ради', 1], ['КНП "Петрівська Центральна лікарня" Петрівської районної ради', 1]]</t>
+          <t>[['КНП "Баштанська БПЛ"', 3], ['КНП"Баштанська БПЛ', 4]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1998360</t>
+          <t>1998785</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['КНП "Березанська ЦРЛ"', 1], ['КНП "Березанская ЦРЛ"', 3]]</t>
+          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1998785</t>
+          <t>2004216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
+          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 1], ['КНП Городоцька МБЛ', 1]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2004404</t>
+          <t>2004367</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 1], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
+          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2004812</t>
+          <t>2004404</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
+          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 1], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2006194</t>
+          <t>2004812</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
+          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2006225</t>
+          <t>2006194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 5]]</t>
+          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2006604</t>
+          <t>2006225</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
+          <t>[["КНП ''Городнянська МЛ'' ГМР", 16], ["КНП ''Корюківська ЦРЛ'' КМР", 5]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2006610</t>
+          <t>2006604</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 4], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
+          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2007259</t>
+          <t>2006610</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['КНП  «КМДЛ №4» КМР» м.Кривий Ріг', 2], ['КП «АМЛ «АМР» м.Апостолове', 1]]</t>
+          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 6], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2148517983</t>
+          <t>2007259</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['ФОП Олійник Д.Д.', 7], ['ФОП ОЛійник Д.Д.', 1]]</t>
+          <t>[['КНП  «КМДЛ №4» КМР» м.Кривий Ріг', 2], ['КП «АМЛ «АМР» м.Апостолове', 1]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22348948</t>
+          <t>2148517983</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 8]]</t>
+          <t>[['ФОП Олійник Д.Д.', 7], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2314026147</t>
+          <t>22348948</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['ФОП Селезньова С. Л', 3], ['ФОП Селезньова С,Л', 1], ['ФОП Селезньова С.Л', 7]]</t>
+          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 8]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>2314026147</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['ФОП "Сем\'янчук В.Б."', 8], ['ФОП Білик Роман Павлович', 9]]</t>
+          <t>[['ФОП Селезньова С. Л', 4], ['ФОП Селезньова С,Л', 1], ['ФОП Селезньова С.Л', 6]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26381838</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['КНП " Дитячий МЦ" КПМР', 11], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
+          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2727016128</t>
+          <t>26381838</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['ФОП Ковенько Т.', 7], ['ФОП КовенькоТ.', 4]]</t>
+          <t>[['КНП " Дитячий МЦ" КПМР', 11], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2798817680</t>
+          <t>2727016128</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 71]]</t>
+          <t>[['ФОП Ковенько Т.', 8], ['ФОП КовенькоТ.', 3]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3146414401</t>
+          <t>2774384</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
+          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня"  Хмельницької міської ради', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3153200965</t>
+          <t>2798817680</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['ФОП ГУЗАК ОІ', 7], ['ФОп ГУЗАК ОІ', 1]]</t>
+          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 86]]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3259514282</t>
+          <t>2939705320</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 15], ['ФОП ВІннічук Ю.В.', 1]]</t>
+          <t>[['ПП "Віва Клінік"', 4], ['ПП "Віва Клінік" м.Славута', 2], ['ПП " Віва Клінік"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3280718060</t>
+          <t>3146414401</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
+          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>35479197</t>
+          <t>3153200965</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 5], ['ПП"Сіліцея"', 7]]</t>
+          <t>[['ФОП ГУЗАК ОІ', 7], ['ФОп ГУЗАК ОІ', 1]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37263866</t>
+          <t>3210314064</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 21]]</t>
+          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37329345</t>
+          <t>3259514282</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
+          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 15], ['ФОП ВІннічук Ю.В.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37803420</t>
+          <t>3280718060</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
+          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38073028</t>
+          <t>35479197</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 12], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
+          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 7]]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>38094142</t>
+          <t>37263866</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['КНП "Арбузинський ЦПМСД АСР"', 6], ['Арбузинський ЦПМСД', 1]]</t>
+          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38195551</t>
+          <t>37329345</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 5], ['ТОВ "АЛМ-Поділля"', 1], ['КНП Чемеровецький центр ПМСД', 4]]</t>
+          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38270455</t>
+          <t>37803420</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['КНП "Летичівський ЦПМСД"', 7], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
+          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 11], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38281797</t>
+          <t>38073028</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['КНП"Новоронцовський районний ЦПМСД"', 8], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 4]]</t>
+          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 12], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38283239</t>
+          <t>38195551</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
+          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 4], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38297440</t>
+          <t>38270455</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 3]]</t>
+          <t>[['КНП "Летичівський ЦПМСД"', 6], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38341981</t>
+          <t>38281797</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 1]]</t>
+          <t>[['КНП"Новоронцовський районний ЦПМСД"', 7], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 4]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38402043</t>
+          <t>38283239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 2], ['КП"КНП Шепетівський ЦентрПМСД', 1], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 9], ['КП "КНП Шепетівський Центр ПМСД', 3]]</t>
+          <t>[['КНП "Ярмолинецький центр ПМСД"', 5], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38453281</t>
+          <t>38297440</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 3], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
+          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 3]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38458316</t>
+          <t>38313933</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[['ДУ "Миколаївський ОЦКПХ"', 4], ['ДУ"Миколаївський ОЦКПХ', 5]]</t>
+          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 10]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38462249</t>
+          <t>38341981</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[['КНП «Макарівський ЦПМСД» Макарівської селищної ради', 8], ['КНП "Макарівський ЦПМСД" Макарівської селищної ради', 3]]</t>
+          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>38469307</t>
+          <t>38363607</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМД Хмельницького району"', 14], ['КНП "ЦПМД Хмельницького району"', 1], ['КНП"ЦПМД Хмельницького району"', 1]]</t>
+          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>38474592</t>
+          <t>38402043</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 9], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 7]]</t>
+          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 1], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 9], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38500472</t>
+          <t>38453281</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 5], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
+          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>38566219</t>
+          <t>38458316</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
+          <t>[['ДУ "Миколаївський ОЦКПХ"', 3], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>38584683</t>
+          <t>38469307</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 10], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
+          <t>[['КНП "Центр ПМД Хмельницького району"', 14], ['КНП "ЦПМД Хмельницького району"', 1], ['КНП"ЦПМД Хмельницького району"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38584715</t>
+          <t>38474592</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 6], ["КНП ''Коропський ЦПМСД'' КСР", 3]]</t>
+          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 11], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 7]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>38611140</t>
+          <t>38476906</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[['КНП Теофіпольський ЦПСМД', 2], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 3], ['КПН Теофіпольський ЦПМСД', 1]]</t>
+          <t>[['КП "МЦ ПМСД Мішков-Погоріловської с/р"', 7], ['кп"МЦПМСД Мішково-Погорелово', 1]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>38822156</t>
+          <t>38487677</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[['КНП "Березівський міський ЦПМСД"', 11], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
+          <t>[['КНП"Старокостянтинівський ЦПМСД"', 7], ['КНП "Старокостянтинівський ЦПМСД"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38860558</t>
+          <t>38500472</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 18], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 7], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
+          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 5], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39042509</t>
+          <t>38500540</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[['КНП "Андрушівський ЦПМСД"', 7], ['КНП "ЦПМСД" Андрушівська м/р', 3], ['КНП "ЦПМСД" Андрушівської міської ради', 3]]</t>
+          <t>[['КНП "Чуднівський ЦПМСД" Чуднівської міської ради', 13], ['ТОВ " МЦ Актив-Мед" Любар', 1]]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39115875</t>
+          <t>38566219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 69', 8], ['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 70', 1]]</t>
+          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39482989</t>
+          <t>38584683</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[['ТОВ Фастмед Україна', 6], ['ТОВ " Фастмед" України', 1]]</t>
+          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 12], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>40081352</t>
+          <t>38584715</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 2]]</t>
+          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 5], ["КНП ''Коропський ЦПМСД'' КСР", 3]]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>40208517</t>
+          <t>38611140</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Куяльницької сільської ради Подільського району"', 1], ['КНП "ЦПМСД Куяльницької сільської ради Подільського району', 9]]</t>
+          <t>[['КНП Теофіпольський ЦПСМД', 2], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>40208847</t>
+          <t>38731750</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[['КНП ЦПМСД Ушомирської с/р', 5], ['ЦПМСД Ушомирської ср', 6]]</t>
+          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 9], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>40333372</t>
+          <t>38822156</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1]]</t>
+          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>40382938</t>
+          <t>38860558</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 3]]</t>
+          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>40407915</t>
+          <t>39042509</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[['МЕДКОМ', 10], ['МЕДКОМ Березне', 9]]</t>
+          <t>[['КНП "ЦПМСД" Андрушівська м/р', 6], ['КНП "Андрушівський ЦПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>40595597</t>
+          <t>40081352</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
+          <t>[['дніпровська КЛ на залізничному транспорті', 10], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>41140764</t>
+          <t>40208517</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
+          <t>[['КНП "ЦПМСД Куяльницької сільської ради Подільського району"', 1], ['КНП "ЦПМСД Куяльницької сільської ради Подільського району', 9]]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>41774140</t>
+          <t>40208847</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2]]</t>
+          <t>[['ЦПМСД Ушомирської ср', 6], ['КНП ЦПМСД Ушомирської с/р', 5]]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>41877252</t>
+          <t>40333372</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[['КНП ЦПМСД Полонської міської ради', 9], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
+          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>41931754</t>
+          <t>40358245</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[['КП "ЦПМСД" Житомирської міської ради', 8], ['КП ЦПМСД ЖМР', 7]]</t>
+          <t>[['ПП "Віва Клінік" м.Славута', 1], ['ПП"Віва Клінік" м.Славута', 1]]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>41995294</t>
+          <t>40382938</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 3], ['КНП "ЦПМСД" Ямницької сільської ради', 12]]</t>
+          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>42002686</t>
+          <t>40407915</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[['КНП НМР Центр ПМСД', 11], ['КНП НМР "Центр ПМСД"', 1]]</t>
+          <t>[['МЕДКОМ', 12], ['МЕДКОМ Березне', 8]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>42061427</t>
+          <t>40595597</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[['КНП "ЦЕНТР ПЕРВИННОЇ МЕДИЧНОЇ ДОПОМОГИ" РОЖНЯТІВСЬКОЇ СЕЛИЩНОЇ РАДИ', 11], ['кнп "ЦЕНТР ПЕРВИННОЇ МЕДИЧНОЇ ДОПОМОГИ" РОЖНЯТІВСЬКОЇ СЕЛИЩНОЇ РАДИ', 1]]</t>
+          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>42241755</t>
+          <t>40887956</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[['КНП «ЦПМСД Березанської міської ради»', 7], ['КНП "Березанський РЦ ПМСД"', 10]]</t>
+          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 6], ['ХМЦПМСД№2"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>42273991</t>
+          <t>40992563</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[['ТОВ " Медикал Сервіс"', 2], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
+          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>42637772</t>
+          <t>41140764</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[['КНП «ЦПМСД Березанської міської ради»', 1], ['КНП «Ржищівський міський ЦПМСД» Ржищівської міської ради', 9]]</t>
+          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>43575733</t>
+          <t>41750747</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[['ТОВ Медична Зірка', 13], ['ТОВ «Медична Зірка»', 9]]</t>
+          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>43731768</t>
+          <t>41774140</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСМ"Біхелсі""', 15], ['ТзОВ «КСМ Біхелсі»', 11]]</t>
+          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2]]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>43762272</t>
+          <t>41877252</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[['ТОВ МЦ Лікарська династія', 11], ['ТОВ "Медичний центр "Лікарська династія"', 9]]</t>
+          <t>[['КНП "Полонський ЦПМСД Полонської міської ради"', 1], ['КНП ЦПМСД Полонської міської ради', 9], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>43778764</t>
+          <t>41940690</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[['ТОВ "Медикал плюс"', 3], ['ТзОВ «Медікал плюс»', 5]]</t>
+          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 9], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>43858467</t>
+          <t>41995294</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[['ТОВ "Первинка - 2"', 10], ['ТОВ "МЦ "Первинка-2"', 9]]</t>
+          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 10]]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>43871190</t>
+          <t>42002686</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[['ТОВ "Нова Поліклініка Захід"', 10], ['ТОВ «Нова Поліклініка»', 10]]</t>
+          <t>[['КНП НМР Центр ПМСД', 10], ['КНП НМР "Центр ПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>44040634</t>
+          <t>42241755</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 7], ['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2]]</t>
+          <t>[['КНП «ЦПМСД Березанської міської ради»', 9], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>44488596</t>
+          <t>42273991</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[['КНП "Гульська АЗПСМ"', 5], ['КНП "Гульська АЗПСМ"Стриївської селищної ради', 1]]</t>
+          <t>[['ТОВ "Медикал Сервіс"', 4], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>42579187</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 10]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>43561851</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[['ТОВ" Перша приватна поліклініка Миколаїв"', 2], ['ТОВ "Перша приватна полклініка Миколаїва"', 19]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>43575733</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[['ТОВ Медична Зірка', 11], ['ТОВ «Медична Зірка»', 9]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>43731768</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[['ТОВ "КСМ"Біхелсі""', 16], ['ТзОВ «КСМ Біхелсі»', 11]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>43762272</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[['ТОВ МЦ Лікарська династія', 13], ['ТОВ "Медичний центр "Лікарська династія"', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>43778764</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Медикал плюс"', 3], ['ТзОВ «Медікал плюс»', 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>43858467</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Первинка - 2"', 12], ['ТОВ "МЦ "Первинка-2"', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>43871190</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>44040634</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>5483121</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>[['МДЛ№2', 12], ['MДЛ№2', 1]]</t>
         </is>

--- a/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
+++ b/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 14], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
+          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 12], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
         </is>
       </c>
     </row>
@@ -513,977 +513,1013 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 1], ['КНП Городоцька МБЛ', 1]]</t>
+          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2004367</t>
+          <t>2004350</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
+          <t>[['КНП"КрасилівськаБЛ"', 1], ['КНП"Красилівська БЛ"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2004404</t>
+          <t>2004367</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 1], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
+          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2004812</t>
+          <t>2004404</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
+          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 2], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2006194</t>
+          <t>2004746</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
+          <t>[['КП " Хмельницький міський перинатальний центр"', 1], ['КП "Хмельницький міський перинатальний центр"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2006225</t>
+          <t>2004812</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянська МЛ'' ГМР", 16], ["КНП ''Корюківська ЦРЛ'' КМР", 5]]</t>
+          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2006604</t>
+          <t>2006194</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
+          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2006610</t>
+          <t>2006225</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 6], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
+          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 4]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2007259</t>
+          <t>2006604</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['КНП  «КМДЛ №4» КМР» м.Кривий Ріг', 2], ['КП «АМЛ «АМР» м.Апостолове', 1]]</t>
+          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2148517983</t>
+          <t>2006610</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['ФОП Олійник Д.Д.', 7], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
+          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 5], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22348948</t>
+          <t>2148517983</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 8]]</t>
+          <t>[['ФОП Олійник Д.Д.', 7], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2314026147</t>
+          <t>22348948</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['ФОП Селезньова С. Л', 4], ['ФОП Селезньова С,Л', 1], ['ФОП Селезньова С.Л', 6]]</t>
+          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 7]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>2314026147</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
+          <t>[['ФОП Селезньова С. Л', 4], ['ФОП Селезньова С.Л', 4]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26381838</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['КНП " Дитячий МЦ" КПМР', 11], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
+          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2727016128</t>
+          <t>2562701239</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['ФОП Ковенько Т.', 8], ['ФОП КовенькоТ.', 3]]</t>
+          <t>[['ФОП Маланчик І,А,', 1], ['ФОП "Маланчик"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2774384</t>
+          <t>26381838</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня"  Хмельницької міської ради', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1]]</t>
+          <t>[['КНП " Дитячий МЦ" КПМР', 11], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2798817680</t>
+          <t>2727016128</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 86]]</t>
+          <t>[['ФОП Ковенько Т.', 7], ['ФОП КовенькоТ.', 3]]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2939705320</t>
+          <t>2774384</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['ПП "Віва Клінік"', 4], ['ПП "Віва Клінік" м.Славута', 2], ['ПП " Віва Клінік"', 5]]</t>
+          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня"  Хмельницької міської ради', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1], ['комунальне підприємство  " Хмельницька міська лікарня" Хмельницької міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3146414401</t>
+          <t>2798817680</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
+          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 102]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3153200965</t>
+          <t>2939705320</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['ФОП ГУЗАК ОІ', 7], ['ФОп ГУЗАК ОІ', 1]]</t>
+          <t>[['ПП "Віва Клінік"', 5], ['ПП "Віва Клінік" м.Славута', 2], ['ПП " Віва Клінік"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3210314064</t>
+          <t>3146414401</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
+          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3259514282</t>
+          <t>3153200965</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 15], ['ФОП ВІннічук Ю.В.', 1]]</t>
+          <t>[['ФОП ГУЗАК ОІ', 6], ['ФОп ГУЗАК ОІ', 1]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3280718060</t>
+          <t>3210314064</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
+          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35479197</t>
+          <t>3259514282</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 7]]</t>
+          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 20], ['ФОП ВІннічук Ю.В.', 3], ['ФОП ВІНнічук Ю.В.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37263866</t>
+          <t>3280718060</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 2]]</t>
+          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>37329345</t>
+          <t>35479197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
+          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 8]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>37803420</t>
+          <t>37263866</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 11], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
+          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 14]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38073028</t>
+          <t>37329345</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 12], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
+          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38195551</t>
+          <t>37803420</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 4], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
+          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38270455</t>
+          <t>38073028</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['КНП "Летичівський ЦПМСД"', 6], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
+          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 13], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38281797</t>
+          <t>38195551</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['КНП"Новоронцовський районний ЦПМСД"', 7], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 4]]</t>
+          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 4], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38283239</t>
+          <t>38270455</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['КНП "Ярмолинецький центр ПМСД"', 5], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
+          <t>[['КНП "Летичівський ЦПМСД"', 8], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38297440</t>
+          <t>38281797</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 3]]</t>
+          <t>[['КНП"Новоронцовський районний ЦПМСД"', 9], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 1]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38313933</t>
+          <t>38283239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 10]]</t>
+          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38341981</t>
+          <t>38297440</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
+          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 4]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>38363607</t>
+          <t>38313933</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
+          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 9]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>38402043</t>
+          <t>38341981</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 1], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 9], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
+          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38453281</t>
+          <t>38363607</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
+          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>38458316</t>
+          <t>38402043</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[['ДУ "Миколаївський ОЦКПХ"', 3], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
+          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 2], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 7], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>38469307</t>
+          <t>38453281</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМД Хмельницького району"', 14], ['КНП "ЦПМД Хмельницького району"', 1], ['КНП"ЦПМД Хмельницького району"', 1]]</t>
+          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38474592</t>
+          <t>38458316</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 11], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 7]]</t>
+          <t>[['ДУ "Миколаївський ОЦКПХ"', 4], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>38476906</t>
+          <t>38469307</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[['КП "МЦ ПМСД Мішков-Погоріловської с/р"', 7], ['кп"МЦПМСД Мішково-Погорелово', 1]]</t>
+          <t>[['КНП "Центр ПМД Хмельницького району"', 14], ['КНП "ЦПМД Хмельницького району"', 1], ['КНП"ЦПМД Хмельницького району"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>38487677</t>
+          <t>38474592</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[['КНП"Старокостянтинівський ЦПМСД"', 7], ['КНП "Старокостянтинівський ЦПМСД"', 2]]</t>
+          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 11], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 8]]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38500472</t>
+          <t>38476906</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 5], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
+          <t>[['КП "МЦ ПМСД Мішков-Погоріловської с/р"', 7], ['кп"МЦПМСД Мішково-Погорелово', 1]]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>38500540</t>
+          <t>38487677</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[['КНП "Чуднівський ЦПМСД" Чуднівської міської ради', 13], ['ТОВ " МЦ Актив-Мед" Любар', 1]]</t>
+          <t>[['КНП"Старокостянтинівський ЦПМСД"', 6], ['КНП "Старокостянтинівський ЦПМСД"', 3]]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>38566219</t>
+          <t>38500472</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
+          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 3], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>38584683</t>
+          <t>38566219</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 12], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
+          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>38584715</t>
+          <t>38584683</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 5], ["КНП ''Коропський ЦПМСД'' КСР", 3]]</t>
+          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 11], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38611140</t>
+          <t>38584715</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[['КНП Теофіпольський ЦПСМД', 2], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
+          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 7], ["КНП ''Коропський ЦПМСД'' КСР", 2]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38731750</t>
+          <t>38611140</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 9], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 1]]</t>
+          <t>[['КНП Теофіпольський ЦПСМД', 4], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>38822156</t>
+          <t>38731750</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
+          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 10], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38860558</t>
+          <t>38822156</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
+          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>39042509</t>
+          <t>38860558</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Андрушівська м/р', 6], ['КНП "Андрушівський ЦПМСД"', 6]]</t>
+          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>40081352</t>
+          <t>39042509</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[['дніпровська КЛ на залізничному транспорті', 10], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 2]]</t>
+          <t>[['КНП "ЦПМСД" Андрушівська м/р', 8], ['КНП "Андрушівський ЦПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>40208517</t>
+          <t>39089416</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Куяльницької сільської ради Подільського району"', 1], ['КНП "ЦПМСД Куяльницької сільської ради Подільського району', 9]]</t>
+          <t>[["КНП ''Сновський ЦПМСД'' СМР", 14], ['КНП «Ічнянська міська лікарня» Ічнянської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>40208847</t>
+          <t>39115875</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[['ЦПМСД Ушомирської ср', 6], ['КНП ЦПМСД Ушомирської с/р', 5]]</t>
+          <t>[['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 69', 6], ['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 70', 1], ['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 74', 1]]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>40333372</t>
+          <t>40081352</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1]]</t>
+          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>40358245</t>
+          <t>40208847</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[['ПП "Віва Клінік" м.Славута', 1], ['ПП"Віва Клінік" м.Славута', 1]]</t>
+          <t>[['ЦПМСД Ушомирської ср', 6], ['КНП ЦПМСД Ушомирської с/р', 4]]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40382938</t>
+          <t>40333372</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
+          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорноострівської селищної ради', 1], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1], ["КНП''ЦПМСД ЧОРНИЙ ОСТРІВ''", 1]]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40407915</t>
+          <t>40382938</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[['МЕДКОМ', 12], ['МЕДКОМ Березне', 8]]</t>
+          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>40595597</t>
+          <t>40407915</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
+          <t>[['МЕДКОМ', 11], ['МЕДКОМ Березне', 7]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40887956</t>
+          <t>40595597</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 6], ['ХМЦПМСД№2"', 1]]</t>
+          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40992563</t>
+          <t>40887956</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
+          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 6], ['ХМЦПМСД№2"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41140764</t>
+          <t>40992563</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
+          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>41750747</t>
+          <t>41140764</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
+          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>41774140</t>
+          <t>41750747</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2]]</t>
+          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>41877252</t>
+          <t>41774140</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[['КНП "Полонський ЦПМСД Полонської міської ради"', 1], ['КНП ЦПМСД Полонської міської ради', 9], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
+          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2], ['КП"Медичний лікувально-діагностичний центр"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>41940690</t>
+          <t>41877252</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 9], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
+          <t>[['КНП ЦПМСД Полонської міської ради', 10], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>41995294</t>
+          <t>41940690</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 10]]</t>
+          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 9], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>42002686</t>
+          <t>41995294</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[['КНП НМР Центр ПМСД', 10], ['КНП НМР "Центр ПМСД"', 1]]</t>
+          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 9]]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>42241755</t>
+          <t>42002686</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[['КНП «ЦПМСД Березанської міської ради»', 9], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
+          <t>[['КНП НМР Центр ПМСД', 10], ['КНП НМР "Центр ПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42273991</t>
+          <t>42241755</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[['ТОВ "Медикал Сервіс"', 4], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
+          <t>[['КНП «ЦПМСД Березанської міської ради»', 8], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42579187</t>
+          <t>42273991</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 10]]</t>
+          <t>[['ТОВ " Медикал Сервіс"', 5], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>43561851</t>
+          <t>42277419</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[['ТОВ" Перша приватна поліклініка Миколаїв"', 2], ['ТОВ "Перша приватна полклініка Миколаїва"', 19]]</t>
+          <t>[['КНП "Шепетівський міський центр ПМСД" Шепетівської ради', 5], ['КНП Шепетівський МЦ ПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>43575733</t>
+          <t>42500117</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[['ТОВ Медична Зірка', 11], ['ТОВ «Медична Зірка»', 9]]</t>
+          <t>[['КНП "Центр первинної медико-санітарної допомоги" Южненської міської ради', 5], ['кНП "Центр первинної медико-санітарної допомоги" Южненської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>43731768</t>
+          <t>42579187</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСМ"Біхелсі""', 16], ['ТзОВ «КСМ Біхелсі»', 11]]</t>
+          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 12]]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>43762272</t>
+          <t>43561851</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[['ТОВ МЦ Лікарська династія', 13], ['ТОВ "Медичний центр "Лікарська династія"', 8]]</t>
+          <t>[['ТОВ" Перша приватна поліклініка Миколаїв"', 2], ['ТОВ "Перша приватна полклініка Миколаїва"', 19]]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>43778764</t>
+          <t>43575733</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[['ТОВ "Медикал плюс"', 3], ['ТзОВ «Медікал плюс»', 5]]</t>
+          <t>[['ТОВ Медична Зірка', 12], ['ТОВ «Медична Зірка»', 9]]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>43858467</t>
+          <t>43731768</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[['ТОВ "Первинка - 2"', 12], ['ТОВ "МЦ "Первинка-2"', 8]]</t>
+          <t>[['ТОВ "КСМ"Біхелсі""', 16], ['ТзОВ «КСМ Біхелсі»', 11]]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>43871190</t>
+          <t>43762272</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+          <t>[['ТОВ МЦ Лікарська династія', 13], ['ТОВ "Медичний центр "Лікарська династія"', 10]]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>44040634</t>
+          <t>43778764</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 5]]</t>
+          <t>[['ТОВ "Медикал плюс"', 4], ['ТзОВ «Медікал плюс»', 5]]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>43858467</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Первинка - 2"', 13], ['ТОВ "МЦ "Первинка-2"', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>43871190</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>44040634</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 5]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>5483121</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>[['МДЛ№2', 12], ['MДЛ№2', 1]]</t>
         </is>

--- a/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
+++ b/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1990756</t>
+          <t>14280960</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['КНП"БЛІЛ КМР"', 5], ['КНП"БЛІЛ КМР', 1]]</t>
+          <t>[['КНП"ЖовтоводськаМЛ"', 3], ['КНП"Жовтоводська МЛ"ЖМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1993486</t>
+          <t>1983814</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 12], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
+          <t>[['КНП"Херсонська міська клінична лікарня ім.Карабелеша"', 14], ['КНП"Новоронцовський районний ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1995290</t>
+          <t>1990756</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['КНП "Петрівська Центральна лікарня" Петрівської селищної ради', 1], ['КНП "Петрівська Центральна лікарня" Петрівської районної ради', 1]]</t>
+          <t>[['КНП"БЛІЛ КМР"', 5], ['КНП"БЛІЛ КМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1998354</t>
+          <t>1993486</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['КНП "Баштанська БПЛ"', 3], ['КНП"Баштанська БПЛ', 4]]</t>
+          <t>[['КНП\'\'Тисменицька міська лікарня"Тисменицької міської ради', 12], ['КНП Тисменицька міська лікарня Тисменицької міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1998785</t>
+          <t>1995290</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
+          <t>[['КНП "Петрівська Центральна лікарня" Петрівської селищної ради', 1], ['КНП "Петрівська Центральна лікарня" Петрівської районної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2004216</t>
+          <t>1998785</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 2]]</t>
+          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2004350</t>
+          <t>2004216</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['КНП"КрасилівськаБЛ"', 1], ['КНП"Красилівська БЛ"', 1]]</t>
+          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2004367</t>
+          <t>2004350</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
+          <t>[['КНП"КрасилівськаБЛ"', 1], ['КНП "Красилівська БЛ"', 1], ['КНП"Красилівська БЛ"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2004404</t>
+          <t>2004367</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 2], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
+          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2004746</t>
+          <t>2004404</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['КП " Хмельницький міський перинатальний центр"', 1], ['КП "Хмельницький міський перинатальний центр"', 2]]</t>
+          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 2], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2004812</t>
+          <t>2004746</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
+          <t>[['КП " Хмельницький міський перинатальний центр"', 1], ['КП "Хмельницький міський перинатальний центр"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2006194</t>
+          <t>2004812</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
+          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2006225</t>
+          <t>2006194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 4]]</t>
+          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2006604</t>
+          <t>2006225</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
+          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 4]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2006610</t>
+          <t>2006604</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 5], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
+          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2148517983</t>
+          <t>2006610</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['ФОП Олійник Д.Д.', 7], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
+          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 5], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22348948</t>
+          <t>2148517983</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 7]]</t>
+          <t>[['ФОП Олійник Д.Д.', 8], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2314026147</t>
+          <t>22348948</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['ФОП Селезньова С. Л', 4], ['ФОП Селезньова С.Л', 4]]</t>
+          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 12]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>2314026147</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
+          <t>[['ФОП Селезньова С. Л', 3], ['ФОП Селезньова С.Л', 3]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2562701239</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['ФОП Маланчик І,А,', 1], ['ФОП "Маланчик"', 5]]</t>
+          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['КНП " Дитячий МЦ" КПМР', 11], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
+          <t>[['КНП " Дитячий МЦ" КПМР', 10], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['ФОП Ковенько Т.', 7], ['ФОП КовенькоТ.', 3]]</t>
+          <t>[['ФОП Ковенько Т.', 8], ['ФОП КовенькоТ.', 3]]</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня"  Хмельницької міської ради', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1], ['комунальне підприємство  " Хмельницька міська лікарня" Хмельницької міської ради', 1]]</t>
+          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1], ['комунальне підприємство  " Хмельницька міська лікарня" Хмельницької міської ради', 1]]</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 102]]</t>
+          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 110]]</t>
         </is>
       </c>
     </row>
@@ -748,778 +748,802 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3146414401</t>
+          <t>2975100945</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
+          <t>[['ФОП Ковтун Людмила Володимирівна', 11], ['фОП Ковтун Людмила Володимирівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3153200965</t>
+          <t>3146414401</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['ФОП ГУЗАК ОІ', 6], ['ФОп ГУЗАК ОІ', 1]]</t>
+          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3210314064</t>
+          <t>3153200965</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
+          <t>[['ФОП ГУЗАК ОІ', 6], ['ФОп ГУЗАК ОІ', 1]]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3259514282</t>
+          <t>3210314064</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 20], ['ФОП ВІннічук Ю.В.', 3], ['ФОП ВІНнічук Ю.В.', 1]]</t>
+          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3280718060</t>
+          <t>3259514282</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
+          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 20], ['ФОП ВІннічук Ю.В.', 3], ['ФОП ВІНнічук Ю.В.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>35479197</t>
+          <t>3280718060</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 8]]</t>
+          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>37263866</t>
+          <t>35479197</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 14]]</t>
+          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 7]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>37329345</t>
+          <t>37263866</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
+          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 20]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37803420</t>
+          <t>37329345</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
+          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38073028</t>
+          <t>37803420</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 13], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
+          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38195551</t>
+          <t>38073028</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 4], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
+          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 13], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38270455</t>
+          <t>38195242</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['КНП "Летичівський ЦПМСД"', 8], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
+          <t>[['КНП «Деражнянський ЦПМСД» ДМР ХО', 9], ['КПН "Деражнянський ЦПМСД"ДМР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38281797</t>
+          <t>38195551</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[['КНП"Новоронцовський районний ЦПМСД"', 9], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 1]]</t>
+          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 6], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38283239</t>
+          <t>38270455</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
+          <t>[['КНП "Летичівський ЦПМСД"', 8], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38297440</t>
+          <t>38281797</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 4]]</t>
+          <t>[['КНП"Новоронцовський районний ЦПМСД"', 10], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 1]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>38313933</t>
+          <t>38283239</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 9]]</t>
+          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>38341981</t>
+          <t>38297440</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
+          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 4]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38363607</t>
+          <t>38313933</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
+          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 9]]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>38402043</t>
+          <t>38331800</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 2], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 7], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
+          <t>[['ДУ Івано-Франківський ОЦКПХ', 11], ['Снятинський відділ', 8]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>38453281</t>
+          <t>38341981</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
+          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38458316</t>
+          <t>38363607</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[['ДУ "Миколаївський ОЦКПХ"', 4], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
+          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>38469307</t>
+          <t>38402043</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМД Хмельницького району"', 14], ['КНП "ЦПМД Хмельницького району"', 1], ['КНП"ЦПМД Хмельницького району"', 1]]</t>
+          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 2], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 7], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>38474592</t>
+          <t>38453281</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 11], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 8]]</t>
+          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38476906</t>
+          <t>38458316</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[['КП "МЦ ПМСД Мішков-Погоріловської с/р"', 7], ['кп"МЦПМСД Мішково-Погорелово', 1]]</t>
+          <t>[['ДУ "Миколаївський ОЦКПХ"', 4], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>38487677</t>
+          <t>38469307</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[['КНП"Старокостянтинівський ЦПМСД"', 6], ['КНП "Старокостянтинівський ЦПМСД"', 3]]</t>
+          <t>[['КНП "Центр ПМД Хмельницького району"', 12], ['КНП "ЦПМД Хмельницького району"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>38500472</t>
+          <t>38474592</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 3], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
+          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 10], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 6]]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>38566219</t>
+          <t>38487677</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
+          <t>[['КНП"Старокостянтинівський ЦПМСД"', 6], ['КНП "Старокостянтинівський ЦПМСД"', 3]]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>38584683</t>
+          <t>38500472</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 11], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
+          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 4], ['КНП "ЦПМСД"Черняхівської селищної ради', 7]]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38584715</t>
+          <t>38566219</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 7], ["КНП ''Коропський ЦПМСД'' КСР", 2]]</t>
+          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38611140</t>
+          <t>38584683</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[['КНП Теофіпольський ЦПСМД', 4], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
+          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 10], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>38731750</t>
+          <t>38584715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 10], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 1]]</t>
+          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 7], ["КНП ''Коропський ЦПМСД'' КСР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38822156</t>
+          <t>38611140</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
+          <t>[['КНП Теофіпольський ЦПСМД', 4], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>38860558</t>
+          <t>38731750</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
+          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 10], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>39042509</t>
+          <t>38809093</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Андрушівська м/р', 8], ['КНП "Андрушівський ЦПМСД"', 6]]</t>
+          <t>[['КНП "Вільнянський ЦПМСД"ВМР', 18], ['КНП "Вільнянський ЦПМСД" ВМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>39089416</t>
+          <t>38822156</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновський ЦПМСД'' СМР", 14], ['КНП «Ічнянська міська лікарня» Ічнянської міської ради', 2]]</t>
+          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>39115875</t>
+          <t>38860558</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 69', 6], ['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 70', 1], ['ТОВ "КСТ"Фемелі мед клінік"вул. Лізи Чайкіної 74', 1]]</t>
+          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>40081352</t>
+          <t>39042509</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 1]]</t>
+          <t>[['КНП "Андрушівський ЦПМСД"', 8], ['КНП "ЦПМСД" Андрушівська м/р', 8]]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>40208847</t>
+          <t>39089416</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[['ЦПМСД Ушомирської ср', 6], ['КНП ЦПМСД Ушомирської с/р', 4]]</t>
+          <t>[["КНП ''Сновський ЦПМСД'' СМР", 14], ['КНП «Ічнянська міська лікарня» Ічнянської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40333372</t>
+          <t>40081352</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорноострівської селищної ради', 1], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1], ["КНП''ЦПМСД ЧОРНИЙ ОСТРІВ''", 1]]</t>
+          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 4]]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40382938</t>
+          <t>40208847</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
+          <t>[['ЦПМСД Ушомирської ср', 8], ['КНП ЦПМСД Ушомирської с/р', 5]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>40407915</t>
+          <t>40333372</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[['МЕДКОМ', 11], ['МЕДКОМ Березне', 7]]</t>
+          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорноострівської селищної ради', 1], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1], ["КНП''ЦПМСД ЧОРНИЙ ОСТРІВ''", 1]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40595597</t>
+          <t>40382938</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
+          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40887956</t>
+          <t>40407915</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 6], ['ХМЦПМСД№2"', 1]]</t>
+          <t>[['МЕДКОМ', 10], ['МЕДКОМ Березне', 7]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>40992563</t>
+          <t>40595597</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
+          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>41140764</t>
+          <t>40887956</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
+          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 8], ['ХМЦПМСД№2"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>41750747</t>
+          <t>40992563</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
+          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>41774140</t>
+          <t>41140764</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2], ['КП"Медичний лікувально-діагностичний центр"', 1]]</t>
+          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>41877252</t>
+          <t>41750747</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[['КНП ЦПМСД Полонської міської ради', 10], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
+          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>41940690</t>
+          <t>41774140</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 9], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
+          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2], ['КП"Медичний лікувально-діагностичний центр"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41995294</t>
+          <t>41877252</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 9]]</t>
+          <t>[['КНП ЦПМСД Полонської міської ради', 10], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>42002686</t>
+          <t>41940690</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[['КНП НМР Центр ПМСД', 10], ['КНП НМР "Центр ПМСД"', 1]]</t>
+          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 8], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42241755</t>
+          <t>41995294</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[['КНП «ЦПМСД Березанської міської ради»', 8], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
+          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 9]]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42273991</t>
+          <t>42002686</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[['ТОВ " Медикал Сервіс"', 5], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
+          <t>[['КНП НМР Центр ПМСД', 9], ['КНП НМР "Центр ПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42277419</t>
+          <t>42241755</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівський міський центр ПМСД" Шепетівської ради', 5], ['КНП Шепетівський МЦ ПМСД', 1]]</t>
+          <t>[['КНП «ЦПМСД Березанської міської ради»', 8], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>42500117</t>
+          <t>42273991</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[['КНП "Центр первинної медико-санітарної допомоги" Южненської міської ради', 5], ['кНП "Центр первинної медико-санітарної допомоги" Южненської міської ради', 1]]</t>
+          <t>[['ТОВ " Медикал Сервіс"', 5], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>42579187</t>
+          <t>42277419</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 12]]</t>
+          <t>[['КНП "Шепетівський міський центр ПМСД" Шепетівської ради', 6], ['КНП Шепетівський МЦ ПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>43561851</t>
+          <t>42487175</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[['ТОВ" Перша приватна поліклініка Миколаїв"', 2], ['ТОВ "Перша приватна полклініка Миколаїва"', 19]]</t>
+          <t>[['КНП" Чоповицький СЦПМСД"Чоповицької селищної ради', 2], ['КНП" ЧоповицькийСЦПМСД"Чоповицької селищної ради', 12]]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>43575733</t>
+          <t>42579187</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[['ТОВ Медична Зірка', 12], ['ТОВ «Медична Зірка»', 9]]</t>
+          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 12]]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>43731768</t>
+          <t>42739284</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСМ"Біхелсі""', 16], ['ТзОВ «КСМ Біхелсі»', 11]]</t>
+          <t>[['КНП "Народицька лікарня" Народицької селищної ради', 2], ['КНП "ЦПМСД" Народицької селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>43762272</t>
+          <t>43575733</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[['ТОВ МЦ Лікарська династія', 13], ['ТОВ "Медичний центр "Лікарська династія"', 10]]</t>
+          <t>[['ТОВ Медична Зірка', 12], ['ТОВ «Медична Зірка»', 9]]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>43778764</t>
+          <t>43731768</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[['ТОВ "Медикал плюс"', 4], ['ТзОВ «Медікал плюс»', 5]]</t>
+          <t>[['ТОВ "КСМ"Біхелсі""', 18], ['ТзОВ «КСМ Біхелсі»', 12]]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>43858467</t>
+          <t>43762272</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[['ТОВ "Первинка - 2"', 13], ['ТОВ "МЦ "Первинка-2"', 8]]</t>
+          <t>[['ТОВ МЦ Лікарська династія', 14], ['ТОВ "Медичний центр "Лікарська династія"', 10]]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>43871190</t>
+          <t>43778764</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+          <t>[['ТОВ "Медикал плюс"', 4], ['ТзОВ «Медікал плюс»', 5]]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>44040634</t>
+          <t>43858467</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 5]]</t>
+          <t>[['ТОВ "Первинка - 2"', 13], ['ТОВ "МЦ "Первинка-2"', 9]]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>43871190</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>44040634</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>5483121</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>[['МДЛ№2', 12], ['MДЛ№2', 1]]</t>
         </is>

--- a/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
+++ b/Results/Коди ЄДРПОУ з багатьма варіантами назв закладів.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['КНП"ЖовтоводськаМЛ"', 3], ['КНП"Жовтоводська МЛ"ЖМР', 1]]</t>
+          <t>[['КНП"ЖовтоводськаМЛ"', 4], ['КНП"Жовтоводська МЛ"ЖМР', 2]]</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['КНП"БЛІЛ КМР"', 5], ['КНП"БЛІЛ КМР', 1]]</t>
+          <t>[['КНП"БЛІЛ КМР"', 4], ['КНП"БЛІЛ КМР', 1]]</t>
         </is>
       </c>
     </row>
@@ -508,1044 +508,1068 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1998785</t>
+          <t>1998383</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
+          <t>[['КНП" МОКЛ"', 1], ['КНК"МОКЛ"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2004216</t>
+          <t>1998785</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 2]]</t>
+          <t>[['КНП "Кодимська лікарня" Кодимської міської ради Подільського району Одеської області', 2], ['КНП "Кодимська лікарня"\n  Кодимської міської ради\n  Подільського району\n  Одеської області', 2]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2004350</t>
+          <t>2004216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['КНП"КрасилівськаБЛ"', 1], ['КНП "Красилівська БЛ"', 1], ['КНП"Красилівська БЛ"', 1]]</t>
+          <t>[['КНП "Городоцька МБЛ" Городоцької міської ради', 1], ['КНП "Городоцька МБЛ"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2004367</t>
+          <t>2004350</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
+          <t>[['КНП"КрасилівськаБЛ"', 1], ['КНП "Красилівська БЛ"', 1], ['КНП"Красилівська БЛ"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2004404</t>
+          <t>2004367</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['КНП "Полонська МЛ ім. Н. С. Говорун"', 2], ['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1]]</t>
+          <t>[['КНА "Летичівська багатопрорфільна лікарня"', 1], ['КРП "Летичівська багатопрофільна лікарня"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2004746</t>
+          <t>2004404</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['КП " Хмельницький міський перинатальний центр"', 1], ['КП "Хмельницький міський перинатальний центр"', 2]]</t>
+          <t>[['Комунальне некомерційне підприємство Полонської міської ради "Полонська міська багатопрофільна лікарня ім. Наталії Савеліївни Говорун"', 1], ['КНП "Полонська МЛ ім. Н. С. Говорун"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2004812</t>
+          <t>2004746</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
+          <t>[['КП " Хмельницький міський перинатальний центр"', 1], ['КП "Хмельницький міський перинатальний центр"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2006194</t>
+          <t>2004812</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
+          <t>[['КНП "Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 2], ['КНП "Шепетівська багатопофільна лікарня" Шепетівської міської ради', 1], ['КНП"Шепетівська багатопрофільна лікарня" Шепетівської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2006225</t>
+          <t>2006194</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 4]]</t>
+          <t>[["КНП ''Коропська ЦЛ'' КСР", 1], ['КНП «Варвинська лікарня» Варвинської селищної ради Прилуцького району Чернігівської області', 1]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2006604</t>
+          <t>2006225</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
+          <t>[["КНП ''Городнянська МЛ'' ГМР", 12], ["КНП ''Корюківська ЦРЛ'' КМР", 4]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2006610</t>
+          <t>2006604</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 5], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
+          <t>[["КНП ''Сновська ЦРЛ'' СМР", 1], ["КНП ''Прилуцька міська дитяча лікарня'' ПМР", 5]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2148517983</t>
+          <t>2006610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['ФОП Олійник Д.Д.', 8], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
+          <t>[["КНП ''Чернігівська МЛ №4'' ЧМР", 5], ['КНП «Пологовий будинок» Чернігівської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22348948</t>
+          <t>2148517983</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['БФ ім. Митрополита А. Шептицького', 6], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 12]]</t>
+          <t>[['ФОП Олійник Д.Д.', 9], ['ФОП ОЛійник Д.Д.', 1], ['ФОП олійник Д.Д.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2314026147</t>
+          <t>22348948</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['ФОП Селезньова С. Л', 3], ['ФОП Селезньова С.Л', 3]]</t>
+          <t>[['БФ ім. Митрополита А. Шептицького', 5], ['Благодійний Фонд "Шпиталь імені Митрополита Андрея Шептицького Курії Львівської Архиєпархії Української Греко-Католицької Церкви"', 12]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>2314026147</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
+          <t>[['ФОП Селезньова С. Л', 4], ['ФОП Селезньова С.Л', 3]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26381838</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['КНП " Дитячий МЦ" КПМР', 10], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
+          <t>[['ФОП "Сем\'янчук В.Б."', 9], ['ФОП Білик Роман Павлович', 10]]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2727016128</t>
+          <t>26381838</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['ФОП Ковенько Т.', 8], ['ФОП КовенькоТ.', 3]]</t>
+          <t>[['КНП " Дитячий МЦ" КПМР', 10], ['КНП " Дитячий МЦ " КПМР', 2]]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2774384</t>
+          <t>2727016128</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1], ['комунальне підприємство  " Хмельницька міська лікарня" Хмельницької міської ради', 1]]</t>
+          <t>[['ФОП Ковенько Т.', 6], ['ФОП КовенькоТ.', 3]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2798817680</t>
+          <t>2774384</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 110]]</t>
+          <t>[['КП " Хмельницька міська лікарня"', 1], ['КП "Хмльницька міська лікарня"', 1], ['комунальне підприємство "Хмельницька міська лікарня " Хмельницької міської ради', 1], ['комунальне підприємство  " Хмельницька міська лікарня" Хмельницької міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2939705320</t>
+          <t>2798817680</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['ПП "Віва Клінік"', 5], ['ПП "Віва Клінік" м.Славута', 2], ['ПП " Віва Клінік"', 5]]</t>
+          <t>[['ФОП Слободянюк Л.А.', 43], ['фОП Слободянюк Л.А.', 1], ['ФОП Слободянюк Л.А. педіатр', 117]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2975100945</t>
+          <t>2939705320</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['ФОП Ковтун Людмила Володимирівна', 11], ['фОП Ковтун Людмила Володимирівна', 1]]</t>
+          <t>[['ПП "Віва Клінік"', 5], ['ПП "Віва Клінік" м.Славута', 2], ['ПП " Віва Клінік"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3146414401</t>
+          <t>2975100945</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
+          <t>[['ФОП Ковтун Людмила Володимирівна', 11], ['фОП Ковтун Людмила Володимирівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3153200965</t>
+          <t>3146414401</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['ФОП ГУЗАК ОІ', 6], ['ФОп ГУЗАК ОІ', 1]]</t>
+          <t>[['ФОП Робейко Фаїна Олександрівна', 7], ['ФОП Робейко Фауна Олександрівна', 1]]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3210314064</t>
+          <t>3198123020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
+          <t>[['ФОП Лавренчук Ірина Олегівна', 11], ['Обухівський район ФОП Лавренчук Ірина Олегівна', 11]]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3259514282</t>
+          <t>3210314064</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 20], ['ФОП ВІннічук Ю.В.', 3], ['ФОП ВІНнічук Ю.В.', 1]]</t>
+          <t>[['Фоп Осипенко К.В', 3], ['ФОП  Осипенко К.В', 1]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3280718060</t>
+          <t>3259514282</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
+          <t>[['ФОП Віннічук Юлія Валеріївна', 3], ['ФОП Віннічук Ю.В.', 20], ['ФОП ВІннічук Ю.В.', 7], ['ФОП ВІНнічук Ю.В.', 1]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35479197</t>
+          <t>3280718060</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 7]]</t>
+          <t>[['ФОП Гончар Інна Михайлівна', 6], ['Фоп ГоНЧАР ІМ', 1], ['Фоп ГОНЧАР ІМ', 1], ['ФОП ГОНЧАР ІМ', 4]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>37263866</t>
+          <t>3284623415</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 20]]</t>
+          <t>[['Білоцерківський район ФОП Ленчук Андрій Станіславович', 8], ['Білоцерківський район ФОП Піщана Надія Юріївна', 3]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37329345</t>
+          <t>3320813521</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
+          <t>[['Білоцерківський район ФОП Гальчинський Олександр Олегович', 1], ['Білоцерківський район ФОП Піщана Надія Юріївна', 6]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>37803420</t>
+          <t>33761466</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
+          <t>[['Приватне підприємство "МІЛАМЕД"', 5], ['Приватне підприємство " МІЛАМЕД"', 2]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38073028</t>
+          <t>35479197</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 13], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
+          <t>[['ТОВ Клініка Свій лікар м.Дунаївці', 1], ['ТОВ"КЛІНІКА СВІЙ ЛІКАР"м.Дунаївці', 6], ['ПП"Сіліцея"', 7]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38195242</t>
+          <t>37263866</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['КНП «Деражнянський ЦПМСД» ДМР ХО', 9], ['КПН "Деражнянський ЦПМСД"ДМР ХО', 1]]</t>
+          <t>[['ПП"Приватна поліклініка "Малятко плюс"', 45], ['ПП "Малятко плюс"', 25], ['ПП"Малятко плюс"', 26]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38195551</t>
+          <t>37329345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 6], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
+          <t>[['КНП"СТАРОСИНЯВСЬКИЙ ЦПМСД"', 3], ['КНП СТАРОСИНЯВСЬКИЙ ЦПМСД', 7], ['КНП "СТАРОСИНЯВСЬКИЙ ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38270455</t>
+          <t>37803420</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[['КНП "Летичівський ЦПМСД"', 8], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
+          <t>[['КНП "Мирноградський центр первинної медико-санітарної допомоги"', 1], ['КНП "Мирноградський центр первинної медико-санітарної допомоги "', 10], ['КНП " Мирноградський центр первинної медико-санітарної допомоги"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38281797</t>
+          <t>38073028</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[['КНП"Новоронцовський районний ЦПМСД"', 10], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 1]]</t>
+          <t>[["КНП ''Городнянський ЦПМСД'' ГМР", 13], ["КНП '' Семенівський ЦПМСД'' СМР", 3]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>38283239</t>
+          <t>38195242</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
+          <t>[['КНП «Деражнянський ЦПМСД» ДМР ХО', 9], ['КПН "Деражнянський ЦПМСД"ДМР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>38297440</t>
+          <t>38195551</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 4]]</t>
+          <t>[['КНП "КНП Чемеровецький центр ПМСД"', 1], ['КНП "Чемеровецький центр ПМСД"', 6], ['ТОВ "АЛМ-Поділля"', 3], ['КНП Чемеровецький центр ПМСД', 4]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38313933</t>
+          <t>38270455</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[['КП"Первомайський РЦПМСД', 10], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 9]]</t>
+          <t>[['КНП "Летичівський ЦПМСД"', 7], ['КНП"Летичівський ЦПМСД" Летичівської селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>38331800</t>
+          <t>38281797</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[['ДУ Івано-Франківський ОЦКПХ', 11], ['Снятинський відділ', 8]]</t>
+          <t>[['КНП"Новоронцовський районний ЦПМСД"', 9], ['КНП"Новоронцовський районний ЦПМСД"(СКЛАД)', 1]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>38341981</t>
+          <t>38283239</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[['КНП "Бузький РЦ ПСМД"', 8], ['КНП "Бузький РЦ ПМСД"', 1], ['КНП " Бузький ПМСД"', 6]]</t>
+          <t>[['КНП "Ярмолинецький центр ПМСД"', 6], ['КНП "Ярмолинецький центр ПМСД" ЯСР ХО', 1]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>38363607</t>
+          <t>38297440</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[['КНП"Братський ЦПМСД"', 10], ['кнп "Братський ЦПМСД"', 1]]</t>
+          <t>[['КНП "Білогірський ЦПМСД"', 6], ['КНП "БІЛОГІРСЬКИЙ ЦПМСД"', 4]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>38402043</t>
+          <t>38313933</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 2], ['КП"КНП Шепетівський Центр ПМСД"', 6], ['КП "КНП Шепетівський Центр ПМСД"', 7], ['КП "КНП Шепетівський Центр ПМСД', 4]]</t>
+          <t>[['КП"Первомайський РЦПМСД', 11], ['КОМУНАЛЬНЕ ПІДПРИЄМСТВО «КАМ’ЯНОПО\xadТОКІВСЬКИЙ ЦЕНТР ПЕРВИННОЇ МЕДИКО-САНІТАРНОЇ ДОПОМОГИ»', 11]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>38453281</t>
+          <t>38341981</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
+          <t>[['КНП "Бузький РЦ ПМСД"', 2], ['КНП "Бузький РЦ ПСМД"', 7], ['КНП " Бузький ПМСД"', 6]]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>38458316</t>
+          <t>38363607</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[['ДУ "Миколаївський ОЦКПХ"', 4], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
+          <t>[['КНП"Братський ЦПМСД"', 12], ['кнп "Братський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>38469307</t>
+          <t>38402043</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМД Хмельницького району"', 12], ['КНП "ЦПМД Хмельницького району"', 1]]</t>
+          <t>[['КП КНП Шепетівський Центр ПМСД', 1], ['КП "КПН Шепетівський Центр ПМСД"', 3], ['КП"КНП Шепетівський ЦентрПМСД', 2], ['КП"КНП Шепетівський Центр ПМСД"', 5], ['КП "КНП Шепетівський Центр ПМСД"', 7], ['КП "КНП Шепетівський Центр ПМСД', 3]]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>38474592</t>
+          <t>38453281</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 10], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 6]]</t>
+          <t>[["КНП ''Борзнянський ЦПМСД'' БМР", 5], ["КНП ''Прилуцький міський ЦПМСД''", 2]]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>38487677</t>
+          <t>38458316</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[['КНП"Старокостянтинівський ЦПМСД"', 6], ['КНП "Старокостянтинівський ЦПМСД"', 3]]</t>
+          <t>[['ДУ "Миколаївський ОЦКПХ"', 3], ['ДУ"Миколаївський ОЦКПХ', 6]]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>38500472</t>
+          <t>38469307</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 4], ['КНП "ЦПМСД"Черняхівської селищної ради', 7]]</t>
+          <t>[['КНП "Центр ПМД Хмельницького району"', 12], ['КНП "ЦПМД Хмельницького району"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38566219</t>
+          <t>38474592</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
+          <t>[['ПП МЕДТОРГ -ЕКСПРЕС', 9], ['ДУ "Волинський обласний центр контролю та профілактики хвороб Міністерства охорони здоров\'я України" (обласний склад)', 6]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38584683</t>
+          <t>38487677</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 10], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
+          <t>[['КНП"Старокостянтинівський ЦПМСД"', 6], ['КНП "Старокостянтинівський ЦПМСД"', 3]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>38584715</t>
+          <t>38500472</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 7], ["КНП ''Коропський ЦПМСД'' КСР", 1]]</t>
+          <t>[['КНП "ЦПМСД" Черняхівської селищної ради', 3], ['КНП "ЦПМСД"Черняхівської селищної ради', 6]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>38611140</t>
+          <t>38566219</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[['КНП Теофіпольський ЦПСМД', 4], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
+          <t>[['КНП "Центр ПМСД" КПМР', 10], ['КНП"Центр ПМСД" КПМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>38731750</t>
+          <t>38584683</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" Радомишльської міської ради', 10], ['КНП "АЗПСМ"Курненської сільської ради', 2], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 2]]</t>
+          <t>[["КНП '' Козелецький ЦПМСД'' КРР", 10], ["КНП ''Сосницький ЦПМСД'' ССР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>38809093</t>
+          <t>38584715</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[['КНП "Вільнянський ЦПМСД"ВМР', 18], ['КНП "Вільнянський ЦПМСД" ВМР', 1]]</t>
+          <t>[["КНП ''Новгород-Сіверський міський ЦПМСД'' Н.-Сіверської МР", 6], ["КНП ''Коропський ЦПМСД'' КСР", 1]]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>38822156</t>
+          <t>38611140</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[['КНП "Березівський міський ЦПМСД"', 12], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
+          <t>[['КНП Теофіпольський ЦПСМД', 4], ['КНП "ТЕОФІПОЛЬСЬКИЙ ЦПМСД"', 1], ['Теофіпольський ЦПСМД', 1], ['КНП Теофіпольський ЦПМСД', 4], ['КПН Теофіпольський ЦПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>38860558</t>
+          <t>38731750</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 20], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 8], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
+          <t>[['КНП "АЗПСМ"Курненської сільської ради', 2], ['КНП "ЦПМСД" Радомишльської міської ради', 10], ['Комунальне некомерційне підприємство "Центр первинної медико-санітарної допомоги" Радомишльської міської ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>39042509</t>
+          <t>38809093</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[['КНП "Андрушівський ЦПМСД"', 8], ['КНП "ЦПМСД" Андрушівська м/р', 8]]</t>
+          <t>[['КНП "Вільнянський ЦПМСД"ВМР', 18], ['КНП "Вільнянський ЦПМСД" ВМР', 1]]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>39089416</t>
+          <t>38822156</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[["КНП ''Сновський ЦПМСД'' СМР", 14], ['КНП «Ічнянська міська лікарня» Ічнянської міської ради', 2]]</t>
+          <t>[['КНП "Березівський міський ЦПМСД"', 13], ['кнп "Березівський міський ЦПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40081352</t>
+          <t>38860558</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 4]]</t>
+          <t>[["КНП '' Лосинівський ЦПМСД'' ЛСР", 19], ["КНП ''Ніжинський міський ЦПМСД'' НМР", 9], ["КНП ''Ічнянський ЦПМСД'' ІМР", 2]]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40208847</t>
+          <t>39042509</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[['ЦПМСД Ушомирської ср', 8], ['КНП ЦПМСД Ушомирської с/р', 5]]</t>
+          <t>[['КНП "Андрушівський ЦПМСД"', 7], ['КНП "ЦПМСД" Андрушівська м/р', 8]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>40333372</t>
+          <t>39089416</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорноострівської селищної ради', 1], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1], ["КНП''ЦПМСД ЧОРНИЙ ОСТРІВ''", 1]]</t>
+          <t>[["КНП ''Сновський ЦПМСД'' СМР", 14], ['КНП «Ічнянська міська лікарня» Ічнянської міської ради', 3]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40382938</t>
+          <t>40081352</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
+          <t>[['дніпровська КЛ на залізничному транспорті', 11], ['Львівська клінічна лікарня на залізничному транспорті філії "ЦОЗ" АТ "Укрзалізниця"', 10], ['ХАРКІВСЬКА КЛІНІЧНА ЛІКАРНЯ НА ЗАЛІЗНИЧНОМУ ТРАНСПОРТІ №2 ФІЛІЇ "ЦЕНТР ОХОРОНИ ЗДОРОВ\'Я" АКЦІОНЕРНОГО ТОВАРИСТВА "УКРАЇНСЬКА ЗАЛІЗНИЦЯ"', 4]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40407915</t>
+          <t>40333372</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[['МЕДКОМ', 10], ['МЕДКОМ Березне', 7]]</t>
+          <t>[['КНП"ЦПМСД Чорноострівської селищної ради"', 2], ['КНП ЦПМСД Чорноострівської селищної ради', 1], ['КНП ЦПМСД Чорний Острів', 1], ['КНП ЦПМСД Чорний ОСТРІВ', 1], ['КНП ЦПМСД ЧорнийОстрів', 2], ['КНП ЦПМСД ЧОРНООСТРІВСЬКОЇ селищної ради', 1], ["КНП''ЦПМСД ЧОРНИЙ ОСТРІВ''", 1]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>40595597</t>
+          <t>40382938</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
+          <t>[["ТОВ''МЦЗР''100 відсотків життя''", 11], ["ТОВ ''Медичиний центр здоров'я та реабілітації '' 100 відсотків життя''", 6]]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>40887956</t>
+          <t>40407915</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[['КП"ХМЦПМСД №2"', 2], ['КП"ХМЦПМСД№2"', 8], ['ХМЦПМСД№2"', 1]]</t>
+          <t>[['МЕДКОМ', 10], ['МЕДКОМ Березне', 7]]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>40992563</t>
+          <t>40595597</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
+          <t>[['КНП "ЦПМСД Меджибізької СР"', 4], ['КНП " Меджибізької СР"', 1], ['"КНП ЦПМСД Меджибізької СР"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>41140764</t>
+          <t>40887956</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
+          <t>[['КП"ХМЦПМСД №2"', 1], ['КП"ХМЦПМСД№2"', 7], ['ХМЦПМСД№2"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>41750747</t>
+          <t>40992563</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
+          <t>[['КНП"ЦПМСД"Сатанівської селищної ради', 13], ['КНП "ЦПМСД"Сатанівської селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>41774140</t>
+          <t>41140764</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 2], ['КП"Медичний лікувально-діагностичний центр"', 1]]</t>
+          <t>[['ТОВ "Приватна поліклініка ПрофіМед"', 8], ['ПП"Приватна поліклініка "Малятко плюс"', 5]]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41877252</t>
+          <t>41750747</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[['КНП ЦПМСД Полонської міської ради', 10], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
+          <t>[["КНП '' ЦПМСД Наркевицької СР ''", 3], ['КНП " ЦПМСД Наркевицької СР"', 1], ['КНП "ЦПМСД Наркевицької СР"', 4], ['КНП " ЦПМСД Наркевицької СР "', 1]]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>41940690</t>
+          <t>41774140</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[['Комунальне некомерційне підприємство "Довбиський селищний Центр первинної медико-санітарної допомоги"Довбиської селищної ради', 8], ['КНП "Довбиський селищний ЦПМСД"Довбиської селищної ради', 1]]</t>
+          <t>[['КП " Медичний лікувально-діагностичний центр " с.Кулевча', 6], ['КП"Медичний лікувально-діагностичний центр" с.Кулевча', 4]]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>41995294</t>
+          <t>41877252</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 6], ['КНП "ЦПМСД" Ямницької сільської ради', 9]]</t>
+          <t>[['КНП ЦПМСД Полонської міської ради', 10], ['ІКНП ЦПМСД Полонської міської ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42002686</t>
+          <t>41995294</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[['КНП НМР Центр ПМСД', 9], ['КНП НМР "Центр ПМСД"', 1]]</t>
+          <t>[['КНП "ЦПМСД\' Ямницької сільської ради', 5], ['КНП "ЦПМСД" Ямницької сільської ради', 11]]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>42241755</t>
+          <t>42002686</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[['КНП «ЦПМСД Березанської міської ради»', 8], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
+          <t>[['КНП НМР Центр ПМСД', 9], ['КНП НМР "Центр ПМСД"', 1]]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>42273991</t>
+          <t>42241755</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[['ТОВ " Медикал Сервіс"', 5], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 12]]</t>
+          <t>[['Броварський район КНП «ЦПМСД Березанської міської ради»', 8], ['КНП "Березанський РЦ ПМСД"', 15]]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>42277419</t>
+          <t>42273991</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[['КНП "Шепетівський міський центр ПМСД" Шепетівської ради', 6], ['КНП Шепетівський МЦ ПМСД', 1]]</t>
+          <t>[['Білоцерківський район ТОВ "Медикал Сервіс"', 7], ['Медичний центр ТОВ "Медикал-Сервіс"', 8], ['ТОВ "Медикал сервіс\'\'', 13]]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>42487175</t>
+          <t>42277419</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[['КНП" Чоповицький СЦПМСД"Чоповицької селищної ради', 2], ['КНП" ЧоповицькийСЦПМСД"Чоповицької селищної ради', 12]]</t>
+          <t>[['КНП "Шепетівський міський центр ПМСД" Шепетівської ради', 6], ['КНП Шепетівський МЦ ПМСД', 1]]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>42579187</t>
+          <t>42487175</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 12]]</t>
+          <t>[['КНП" ЧоповицькийСЦПМСД"Чоповицької селищної ради', 12], ['КНП" Чоповицький СЦПМСД"Чоповицької селищної ради', 1]]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>42739284</t>
+          <t>42579187</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[['КНП "Народицька лікарня" Народицької селищної ради', 2], ['КНП "ЦПМСД" Народицької селищної ради', 2]]</t>
+          <t>[['КНП "ЦПМСД" ГУМЕНЕЦЬКОЇ СР', 1], ['КНП "ЦПМСД" Гуменецької СР', 12]]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>43575733</t>
+          <t>42739284</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[['ТОВ Медична Зірка', 12], ['ТОВ «Медична Зірка»', 9]]</t>
+          <t>[['КНП "Народицька лікарня" Народицької селищної ради', 2], ['КНП "ЦПМСД" Народицької селищної ради', 2]]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>43731768</t>
+          <t>42828300</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[['ТОВ "КСМ"Біхелсі""', 18], ['ТзОВ «КСМ Біхелсі»', 12]]</t>
+          <t>[['КНП"Смотрицький центр ПМСД"ССР', 11], ['КНП"Смортицький центр ПМСД"сср', 1]]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>43762272</t>
+          <t>43575733</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[['ТОВ МЦ Лікарська династія', 14], ['ТОВ "Медичний центр "Лікарська династія"', 10]]</t>
+          <t>[['ТОВ Медична Зірка', 12], ['ТОВ «Медична Зірка»', 9]]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>43778764</t>
+          <t>43731768</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[['ТОВ "Медикал плюс"', 4], ['ТзОВ «Медікал плюс»', 5]]</t>
+          <t>[['ТОВ "КСМ"Біхелсі""', 17], ['ТзОВ «КСМ Біхелсі»', 12]]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>43858467</t>
+          <t>43762272</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[['ТОВ "Первинка - 2"', 13], ['ТОВ "МЦ "Первинка-2"', 9]]</t>
+          <t>[['Обухівський район ТОВ МЦ Лікарська династія', 13], ['ТОВ "Медичний центр "Лікарська династія"', 10]]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>43871190</t>
+          <t>43778764</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 9]]</t>
+          <t>[['ТОВ "Медикал плюс"', 5], ['ТзОВ «Медікал плюс»', 5]]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>44040634</t>
+          <t>43858467</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 8]]</t>
+          <t>[['ТОВ "Первинка - 2"', 12], ['ТОВ "МЦ "Первинка-2"', 9]]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>43871190</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[['ТОВ "Нова Поліклініка Захід"', 12], ['ТОВ «Нова Поліклініка»', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>44040634</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[['КНП «Житомирська багатопрофільна опорна лікарня» Новогуйвинської сел. ради', 2], ['Комунальне некомерційне підприємство "Амбулаторія загальної практики-сімейної медицини" Барашівської сільської ради', 8]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>5483121</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>[['МДЛ№2', 12], ['MДЛ№2', 1]]</t>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[['МДЛ№2', 13], ['MДЛ№2', 1]]</t>
         </is>
       </c>
     </row>
